--- a/biology/Médecine/Andrea_Brand/Andrea_Brand.xlsx
+++ b/biology/Médecine/Andrea_Brand/Andrea_Brand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrea Hilary Brand, née le 9 mars 1959, est une biochimiste et neurobiologiste américano-britannique.
-Elle est l'auteure, avec le généticien Norbert Perrimon, du système GAL4/UAS qui permet la manipulation des circuits neuronaux chez la mouche drosophile et lauréate du prix Rosalind-Franklin en 2006 pour « pour ses contributions révolutionnaires aux domaines de la régulation des gènes, de la biologie du développement, de la biologie cellulaire et de la neurobiologie »[1].
+Elle est l'auteure, avec le généticien Norbert Perrimon, du système GAL4/UAS qui permet la manipulation des circuits neuronaux chez la mouche drosophile et lauréate du prix Rosalind-Franklin en 2006 pour « pour ses contributions révolutionnaires aux domaines de la régulation des gènes, de la biologie du développement, de la biologie cellulaire et de la neurobiologie ».
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Jeunesse et formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andrea Hilary Brand naît le 9 mars 1959 aux États-Unis. Elle est la fille d'un économiste auprès de Organisation des Nations unies à New-York. En 1977, après ses études secondaires, elle déménage au Royaume-Uni pour étudier la biochimie à l'Université d'Oxford[2]. Elle obtient un Bachelor of Arts avec mention en 1981. Elle entre alors au Laboratory of Molecular Biology de l'Université de Cambridge, où elle obtient son doctorat en 1986 avec sa thèse Characterisation of a yeast silencer sequence[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrea Hilary Brand naît le 9 mars 1959 aux États-Unis. Elle est la fille d'un économiste auprès de Organisation des Nations unies à New-York. En 1977, après ses études secondaires, elle déménage au Royaume-Uni pour étudier la biochimie à l'Université d'Oxford. Elle obtient un Bachelor of Arts avec mention en 1981. Elle entre alors au Laboratory of Molecular Biology de l'Université de Cambridge, où elle obtient son doctorat en 1986 avec sa thèse Characterisation of a yeast silencer sequence.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1986 à 1988, Andrea Brand effectue des travaux de recherche postdoctoraux sur la transcription des levures dans le département de biochimie de l'Université Harvard[réf. nécessaire]. Ayant décidé de passer de la biochimie à la neurobiologie, elle entre à la fin des années 1980 dans le laboratoire de Norbert Perrimon au département de génétique de la Harvard Medical School, où de 1988 à 1993, elle est membre spéciale de la Leukemia Society[réf. nécessaire].
-C'est là qu'Andrea Brand conçoit le système GAL4/UAS[4] que The Lancet décrit comme « une boîte à outils ingénieuse qui permet aux chercheurs d'activer des gènes dans n'importe quel type de cellule et à tout moment de leur développement, et ainsi de concevoir et tester la fonction des gènes et des protéines »[N 1]. The Lancet note en 2008 que ses travaux sur les cellules souches neurales de drosophile sont susceptibles d'aider à développer des thérapies pour les maladies neurodégénératives telles que la maladie de Parkinson[2],[5].
-De 1993 à 2003, Andrea Brand est Senior Fellow en recherche biomédicale fondamentale au Wellcome Trust/Cancer Research UK Gurdon Institute. De 2003 à 2007, elle est directrice de recherche en neurobiologie du développement dans la même institution. En 2007, elle devient professeure Herchel Smith de biologie moléculaire au département de physiologie, développement et neurosciences de l'Université de Cambridge[6].
+C'est là qu'Andrea Brand conçoit le système GAL4/UAS que The Lancet décrit comme « une boîte à outils ingénieuse qui permet aux chercheurs d'activer des gènes dans n'importe quel type de cellule et à tout moment de leur développement, et ainsi de concevoir et tester la fonction des gènes et des protéines »[N 1]. The Lancet note en 2008 que ses travaux sur les cellules souches neurales de drosophile sont susceptibles d'aider à développer des thérapies pour les maladies neurodégénératives telles que la maladie de Parkinson,.
+De 1993 à 2003, Andrea Brand est Senior Fellow en recherche biomédicale fondamentale au Wellcome Trust/Cancer Research UK Gurdon Institute. De 2003 à 2007, elle est directrice de recherche en neurobiologie du développement dans la même institution. En 2007, elle devient professeure Herchel Smith de biologie moléculaire au département de physiologie, développement et neurosciences de l'Université de Cambridge.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Élue membre de l'Organisation européenne de biologie moléculaire (2000)
 Hooke Medal de la British Society of Cell Biology (2002)
@@ -611,9 +629,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Andrea Brand est l'auteure de nombreux articles de recherche, dont [7]: 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Andrea Brand est l'auteure de nombreux articles de recherche, dont : 
 Targeted gene expression as a means of altering cell fates and generating dominant phenotypes, AH Brand, N Perrimon, Development. 118 (2), 401-415
 Hakes AE &amp; Brand AH (2020) Tailless/TLX reverts intermediate neural progenitors to stem cells driving tumourigenesis via repression of asense/ASCL1. eLife 2020;9:e53377.
 Otsuki L &amp; Brand AH (2019) Dorsal-ventral differences in neural stem cell quiescence are induced by p57KIP2/Dacapo. Developmental Cell. 49:293-300.
